--- a/results/ХАМАТЬЯРОВ РУШАН САФУАТОВИЧ.xlsx
+++ b/results/ХАМАТЬЯРОВ РУШАН САФУАТОВИЧ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>True Answers</t>
   </si>
@@ -22,49 +22,103 @@
     <t>Student Answers</t>
   </si>
   <si>
-    <t>1160</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>134</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>1150</t>
-  </si>
-  <si>
-    <t>0,52</t>
-  </si>
-  <si>
-    <t>0,5</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>7461</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>6,26</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>,6</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>7868</t>
   </si>
 </sst>
 </file>
@@ -437,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -480,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -493,62 +547,150 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B13">
+  <conditionalFormatting sqref="B2:B24">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A2&lt;&gt;B2</formula>
     </cfRule>
